--- a/PythonResources/Data/Consumption/Sympheny/futu_CE_dhw.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_CE_dhw.xlsx
@@ -6311,7 +6311,7 @@
         <v>746</v>
       </c>
       <c r="B746">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -6335,7 +6335,7 @@
         <v>749</v>
       </c>
       <c r="B749">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6503,7 +6503,7 @@
         <v>770</v>
       </c>
       <c r="B770">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6527,7 +6527,7 @@
         <v>773</v>
       </c>
       <c r="B773">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -6887,7 +6887,7 @@
         <v>818</v>
       </c>
       <c r="B818">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -6911,7 +6911,7 @@
         <v>821</v>
       </c>
       <c r="B821">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -7079,7 +7079,7 @@
         <v>842</v>
       </c>
       <c r="B842">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -7103,7 +7103,7 @@
         <v>845</v>
       </c>
       <c r="B845">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -7271,7 +7271,7 @@
         <v>866</v>
       </c>
       <c r="B866">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -7295,7 +7295,7 @@
         <v>869</v>
       </c>
       <c r="B869">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -7463,7 +7463,7 @@
         <v>890</v>
       </c>
       <c r="B890">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -7487,7 +7487,7 @@
         <v>893</v>
       </c>
       <c r="B893">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -7655,7 +7655,7 @@
         <v>914</v>
       </c>
       <c r="B914">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -7679,7 +7679,7 @@
         <v>917</v>
       </c>
       <c r="B917">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -7847,7 +7847,7 @@
         <v>938</v>
       </c>
       <c r="B938">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -7871,7 +7871,7 @@
         <v>941</v>
       </c>
       <c r="B941">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -8231,7 +8231,7 @@
         <v>986</v>
       </c>
       <c r="B986">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -8255,7 +8255,7 @@
         <v>989</v>
       </c>
       <c r="B989">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -8423,7 +8423,7 @@
         <v>1010</v>
       </c>
       <c r="B1010">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
@@ -8447,7 +8447,7 @@
         <v>1013</v>
       </c>
       <c r="B1013">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
@@ -8615,7 +8615,7 @@
         <v>1034</v>
       </c>
       <c r="B1034">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
@@ -8639,7 +8639,7 @@
         <v>1037</v>
       </c>
       <c r="B1037">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
@@ -8807,7 +8807,7 @@
         <v>1058</v>
       </c>
       <c r="B1058">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
@@ -8831,7 +8831,7 @@
         <v>1061</v>
       </c>
       <c r="B1061">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
@@ -8999,7 +8999,7 @@
         <v>1082</v>
       </c>
       <c r="B1082">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
@@ -9023,7 +9023,7 @@
         <v>1085</v>
       </c>
       <c r="B1085">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
@@ -9191,7 +9191,7 @@
         <v>1106</v>
       </c>
       <c r="B1106">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
@@ -9215,7 +9215,7 @@
         <v>1109</v>
       </c>
       <c r="B1109">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
@@ -9575,7 +9575,7 @@
         <v>1154</v>
       </c>
       <c r="B1154">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
@@ -9599,7 +9599,7 @@
         <v>1157</v>
       </c>
       <c r="B1157">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
@@ -9767,7 +9767,7 @@
         <v>1178</v>
       </c>
       <c r="B1178">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
@@ -9791,7 +9791,7 @@
         <v>1181</v>
       </c>
       <c r="B1181">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
@@ -9959,7 +9959,7 @@
         <v>1202</v>
       </c>
       <c r="B1202">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="1203" spans="1:2">
@@ -9983,7 +9983,7 @@
         <v>1205</v>
       </c>
       <c r="B1205">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="1206" spans="1:2">
@@ -10151,7 +10151,7 @@
         <v>1226</v>
       </c>
       <c r="B1226">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="1227" spans="1:2">
@@ -10175,7 +10175,7 @@
         <v>1229</v>
       </c>
       <c r="B1229">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="1230" spans="1:2">
@@ -10343,7 +10343,7 @@
         <v>1250</v>
       </c>
       <c r="B1250">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="1251" spans="1:2">
@@ -10367,7 +10367,7 @@
         <v>1253</v>
       </c>
       <c r="B1253">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="1254" spans="1:2">
@@ -10535,7 +10535,7 @@
         <v>1274</v>
       </c>
       <c r="B1274">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="1275" spans="1:2">
@@ -10559,7 +10559,7 @@
         <v>1277</v>
       </c>
       <c r="B1277">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="1278" spans="1:2">
@@ -10919,7 +10919,7 @@
         <v>1322</v>
       </c>
       <c r="B1322">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="1323" spans="1:2">
@@ -10943,7 +10943,7 @@
         <v>1325</v>
       </c>
       <c r="B1325">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="1326" spans="1:2">
@@ -11111,7 +11111,7 @@
         <v>1346</v>
       </c>
       <c r="B1346">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="1347" spans="1:2">
@@ -11135,7 +11135,7 @@
         <v>1349</v>
       </c>
       <c r="B1349">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="1350" spans="1:2">
@@ -11303,7 +11303,7 @@
         <v>1370</v>
       </c>
       <c r="B1370">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="1371" spans="1:2">
@@ -11327,7 +11327,7 @@
         <v>1373</v>
       </c>
       <c r="B1373">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="1374" spans="1:2">
@@ -11495,7 +11495,7 @@
         <v>1394</v>
       </c>
       <c r="B1394">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="1395" spans="1:2">
@@ -11519,7 +11519,7 @@
         <v>1397</v>
       </c>
       <c r="B1397">
-        <v>53.5969487788023</v>
+        <v>53.59694877880229</v>
       </c>
     </row>
     <row r="1398" spans="1:2">
@@ -11695,7 +11695,7 @@
         <v>1419</v>
       </c>
       <c r="B1419">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1420" spans="1:2">
@@ -11703,7 +11703,7 @@
         <v>1420</v>
       </c>
       <c r="B1420">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1421" spans="1:2">
@@ -11887,7 +11887,7 @@
         <v>1443</v>
       </c>
       <c r="B1443">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1444" spans="1:2">
@@ -11895,7 +11895,7 @@
         <v>1444</v>
       </c>
       <c r="B1444">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1445" spans="1:2">
@@ -12079,7 +12079,7 @@
         <v>1467</v>
       </c>
       <c r="B1467">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1468" spans="1:2">
@@ -12087,7 +12087,7 @@
         <v>1468</v>
       </c>
       <c r="B1468">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1469" spans="1:2">
@@ -12271,7 +12271,7 @@
         <v>1491</v>
       </c>
       <c r="B1491">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1492" spans="1:2">
@@ -12279,7 +12279,7 @@
         <v>1492</v>
       </c>
       <c r="B1492">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1493" spans="1:2">
@@ -12463,7 +12463,7 @@
         <v>1515</v>
       </c>
       <c r="B1515">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1516" spans="1:2">
@@ -12471,7 +12471,7 @@
         <v>1516</v>
       </c>
       <c r="B1516">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1517" spans="1:2">
@@ -12655,7 +12655,7 @@
         <v>1539</v>
       </c>
       <c r="B1539">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1540" spans="1:2">
@@ -12663,7 +12663,7 @@
         <v>1540</v>
       </c>
       <c r="B1540">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1541" spans="1:2">
@@ -12847,7 +12847,7 @@
         <v>1563</v>
       </c>
       <c r="B1563">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1564" spans="1:2">
@@ -12855,7 +12855,7 @@
         <v>1564</v>
       </c>
       <c r="B1564">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1565" spans="1:2">
@@ -13039,7 +13039,7 @@
         <v>1587</v>
       </c>
       <c r="B1587">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1588" spans="1:2">
@@ -13047,7 +13047,7 @@
         <v>1588</v>
       </c>
       <c r="B1588">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1589" spans="1:2">
@@ -13231,7 +13231,7 @@
         <v>1611</v>
       </c>
       <c r="B1611">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1612" spans="1:2">
@@ -13239,7 +13239,7 @@
         <v>1612</v>
       </c>
       <c r="B1612">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1613" spans="1:2">
@@ -13423,7 +13423,7 @@
         <v>1635</v>
       </c>
       <c r="B1635">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1636" spans="1:2">
@@ -13431,7 +13431,7 @@
         <v>1636</v>
       </c>
       <c r="B1636">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1637" spans="1:2">
@@ -13607,7 +13607,7 @@
         <v>1658</v>
       </c>
       <c r="B1658">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1659" spans="1:2">
@@ -13615,7 +13615,7 @@
         <v>1659</v>
       </c>
       <c r="B1659">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1660" spans="1:2">
@@ -13799,7 +13799,7 @@
         <v>1682</v>
       </c>
       <c r="B1682">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1683" spans="1:2">
@@ -13807,7 +13807,7 @@
         <v>1683</v>
       </c>
       <c r="B1683">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1684" spans="1:2">
@@ -13991,7 +13991,7 @@
         <v>1706</v>
       </c>
       <c r="B1706">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1707" spans="1:2">
@@ -13999,7 +13999,7 @@
         <v>1707</v>
       </c>
       <c r="B1707">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1708" spans="1:2">
@@ -14183,7 +14183,7 @@
         <v>1730</v>
       </c>
       <c r="B1730">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1731" spans="1:2">
@@ -14191,7 +14191,7 @@
         <v>1731</v>
       </c>
       <c r="B1731">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1732" spans="1:2">
@@ -14375,7 +14375,7 @@
         <v>1754</v>
       </c>
       <c r="B1754">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1755" spans="1:2">
@@ -14383,7 +14383,7 @@
         <v>1755</v>
       </c>
       <c r="B1755">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1756" spans="1:2">
@@ -14567,7 +14567,7 @@
         <v>1778</v>
       </c>
       <c r="B1778">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1779" spans="1:2">
@@ -14575,7 +14575,7 @@
         <v>1779</v>
       </c>
       <c r="B1779">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1780" spans="1:2">
@@ -14759,7 +14759,7 @@
         <v>1802</v>
       </c>
       <c r="B1802">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1803" spans="1:2">
@@ -14767,7 +14767,7 @@
         <v>1803</v>
       </c>
       <c r="B1803">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1804" spans="1:2">
@@ -14951,7 +14951,7 @@
         <v>1826</v>
       </c>
       <c r="B1826">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1827" spans="1:2">
@@ -14959,7 +14959,7 @@
         <v>1827</v>
       </c>
       <c r="B1827">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1828" spans="1:2">
@@ -15143,7 +15143,7 @@
         <v>1850</v>
       </c>
       <c r="B1850">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1851" spans="1:2">
@@ -15151,7 +15151,7 @@
         <v>1851</v>
       </c>
       <c r="B1851">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1852" spans="1:2">
@@ -15335,7 +15335,7 @@
         <v>1874</v>
       </c>
       <c r="B1874">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1875" spans="1:2">
@@ -15343,7 +15343,7 @@
         <v>1875</v>
       </c>
       <c r="B1875">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1876" spans="1:2">
@@ -15527,7 +15527,7 @@
         <v>1898</v>
       </c>
       <c r="B1898">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1899" spans="1:2">
@@ -15535,7 +15535,7 @@
         <v>1899</v>
       </c>
       <c r="B1899">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1900" spans="1:2">
@@ -15719,7 +15719,7 @@
         <v>1922</v>
       </c>
       <c r="B1922">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1923" spans="1:2">
@@ -15727,7 +15727,7 @@
         <v>1923</v>
       </c>
       <c r="B1923">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1924" spans="1:2">
@@ -15911,7 +15911,7 @@
         <v>1946</v>
       </c>
       <c r="B1946">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1947" spans="1:2">
@@ -15919,7 +15919,7 @@
         <v>1947</v>
       </c>
       <c r="B1947">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1948" spans="1:2">
@@ -16103,7 +16103,7 @@
         <v>1970</v>
       </c>
       <c r="B1970">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1971" spans="1:2">
@@ -16111,7 +16111,7 @@
         <v>1971</v>
       </c>
       <c r="B1971">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1972" spans="1:2">
@@ -16295,7 +16295,7 @@
         <v>1994</v>
       </c>
       <c r="B1994">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1995" spans="1:2">
@@ -16303,7 +16303,7 @@
         <v>1995</v>
       </c>
       <c r="B1995">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="1996" spans="1:2">
@@ -16487,7 +16487,7 @@
         <v>2018</v>
       </c>
       <c r="B2018">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="2019" spans="1:2">
@@ -16495,7 +16495,7 @@
         <v>2019</v>
       </c>
       <c r="B2019">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="2020" spans="1:2">
@@ -16679,7 +16679,7 @@
         <v>2042</v>
       </c>
       <c r="B2042">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="2043" spans="1:2">
@@ -16687,7 +16687,7 @@
         <v>2043</v>
       </c>
       <c r="B2043">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="2044" spans="1:2">
@@ -16871,7 +16871,7 @@
         <v>2066</v>
       </c>
       <c r="B2066">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="2067" spans="1:2">
@@ -16879,7 +16879,7 @@
         <v>2067</v>
       </c>
       <c r="B2067">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="2068" spans="1:2">
@@ -17063,7 +17063,7 @@
         <v>2090</v>
       </c>
       <c r="B2090">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="2091" spans="1:2">
@@ -17071,7 +17071,7 @@
         <v>2091</v>
       </c>
       <c r="B2091">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="2092" spans="1:2">
@@ -17255,7 +17255,7 @@
         <v>2114</v>
       </c>
       <c r="B2114">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="2115" spans="1:2">
@@ -17263,7 +17263,7 @@
         <v>2115</v>
       </c>
       <c r="B2115">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="2116" spans="1:2">
@@ -17447,7 +17447,7 @@
         <v>2138</v>
       </c>
       <c r="B2138">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="2139" spans="1:2">
@@ -17455,7 +17455,7 @@
         <v>2139</v>
       </c>
       <c r="B2139">
-        <v>26.36158753064791</v>
+        <v>26.3615875306479</v>
       </c>
     </row>
     <row r="2140" spans="1:2">
@@ -23447,7 +23447,7 @@
         <v>2888</v>
       </c>
       <c r="B2888">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="2889" spans="1:2">
@@ -23535,7 +23535,7 @@
         <v>2899</v>
       </c>
       <c r="B2899">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="2900" spans="1:2">
@@ -23543,7 +23543,7 @@
         <v>2900</v>
       </c>
       <c r="B2900">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="2901" spans="1:2">
@@ -23551,7 +23551,7 @@
         <v>2901</v>
       </c>
       <c r="B2901">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="2902" spans="1:2">
@@ -23559,7 +23559,7 @@
         <v>2902</v>
       </c>
       <c r="B2902">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="2903" spans="1:2">
@@ -23639,7 +23639,7 @@
         <v>2912</v>
       </c>
       <c r="B2912">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="2913" spans="1:2">
@@ -23727,7 +23727,7 @@
         <v>2923</v>
       </c>
       <c r="B2923">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="2924" spans="1:2">
@@ -23735,7 +23735,7 @@
         <v>2924</v>
       </c>
       <c r="B2924">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="2925" spans="1:2">
@@ -23743,7 +23743,7 @@
         <v>2925</v>
       </c>
       <c r="B2925">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="2926" spans="1:2">
@@ -23751,7 +23751,7 @@
         <v>2926</v>
       </c>
       <c r="B2926">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="2927" spans="1:2">
@@ -23831,7 +23831,7 @@
         <v>2936</v>
       </c>
       <c r="B2936">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="2937" spans="1:2">
@@ -23919,7 +23919,7 @@
         <v>2947</v>
       </c>
       <c r="B2947">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="2948" spans="1:2">
@@ -23927,7 +23927,7 @@
         <v>2948</v>
       </c>
       <c r="B2948">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="2949" spans="1:2">
@@ -23935,7 +23935,7 @@
         <v>2949</v>
       </c>
       <c r="B2949">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="2950" spans="1:2">
@@ -23943,7 +23943,7 @@
         <v>2950</v>
       </c>
       <c r="B2950">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="2951" spans="1:2">
@@ -24023,7 +24023,7 @@
         <v>2960</v>
       </c>
       <c r="B2960">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="2961" spans="1:2">
@@ -24111,7 +24111,7 @@
         <v>2971</v>
       </c>
       <c r="B2971">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="2972" spans="1:2">
@@ -24119,7 +24119,7 @@
         <v>2972</v>
       </c>
       <c r="B2972">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="2973" spans="1:2">
@@ -24127,7 +24127,7 @@
         <v>2973</v>
       </c>
       <c r="B2973">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="2974" spans="1:2">
@@ -24135,7 +24135,7 @@
         <v>2974</v>
       </c>
       <c r="B2974">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="2975" spans="1:2">
@@ -24415,7 +24415,7 @@
         <v>3009</v>
       </c>
       <c r="B3009">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3010" spans="1:2">
@@ -24599,7 +24599,7 @@
         <v>3032</v>
       </c>
       <c r="B3032">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3033" spans="1:2">
@@ -24687,7 +24687,7 @@
         <v>3043</v>
       </c>
       <c r="B3043">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3044" spans="1:2">
@@ -24695,7 +24695,7 @@
         <v>3044</v>
       </c>
       <c r="B3044">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3045" spans="1:2">
@@ -24703,7 +24703,7 @@
         <v>3045</v>
       </c>
       <c r="B3045">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3046" spans="1:2">
@@ -24711,7 +24711,7 @@
         <v>3046</v>
       </c>
       <c r="B3046">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3047" spans="1:2">
@@ -24791,7 +24791,7 @@
         <v>3056</v>
       </c>
       <c r="B3056">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3057" spans="1:2">
@@ -24879,7 +24879,7 @@
         <v>3067</v>
       </c>
       <c r="B3067">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3068" spans="1:2">
@@ -24887,7 +24887,7 @@
         <v>3068</v>
       </c>
       <c r="B3068">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3069" spans="1:2">
@@ -24895,7 +24895,7 @@
         <v>3069</v>
       </c>
       <c r="B3069">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3070" spans="1:2">
@@ -24903,7 +24903,7 @@
         <v>3070</v>
       </c>
       <c r="B3070">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3071" spans="1:2">
@@ -24983,7 +24983,7 @@
         <v>3080</v>
       </c>
       <c r="B3080">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3081" spans="1:2">
@@ -25071,7 +25071,7 @@
         <v>3091</v>
       </c>
       <c r="B3091">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3092" spans="1:2">
@@ -25079,7 +25079,7 @@
         <v>3092</v>
       </c>
       <c r="B3092">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3093" spans="1:2">
@@ -25087,7 +25087,7 @@
         <v>3093</v>
       </c>
       <c r="B3093">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3094" spans="1:2">
@@ -25095,7 +25095,7 @@
         <v>3094</v>
       </c>
       <c r="B3094">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3095" spans="1:2">
@@ -25175,7 +25175,7 @@
         <v>3104</v>
       </c>
       <c r="B3104">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3105" spans="1:2">
@@ -25263,7 +25263,7 @@
         <v>3115</v>
       </c>
       <c r="B3115">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3116" spans="1:2">
@@ -25271,7 +25271,7 @@
         <v>3116</v>
       </c>
       <c r="B3116">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3117" spans="1:2">
@@ -25279,7 +25279,7 @@
         <v>3117</v>
       </c>
       <c r="B3117">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3118" spans="1:2">
@@ -25287,7 +25287,7 @@
         <v>3118</v>
       </c>
       <c r="B3118">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3119" spans="1:2">
@@ -25367,7 +25367,7 @@
         <v>3128</v>
       </c>
       <c r="B3128">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3129" spans="1:2">
@@ -25455,7 +25455,7 @@
         <v>3139</v>
       </c>
       <c r="B3139">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3140" spans="1:2">
@@ -25463,7 +25463,7 @@
         <v>3140</v>
       </c>
       <c r="B3140">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3141" spans="1:2">
@@ -25471,7 +25471,7 @@
         <v>3141</v>
       </c>
       <c r="B3141">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3142" spans="1:2">
@@ -25479,7 +25479,7 @@
         <v>3142</v>
       </c>
       <c r="B3142">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3143" spans="1:2">
@@ -25759,7 +25759,7 @@
         <v>3177</v>
       </c>
       <c r="B3177">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3178" spans="1:2">
@@ -25943,7 +25943,7 @@
         <v>3200</v>
       </c>
       <c r="B3200">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3201" spans="1:2">
@@ -26031,7 +26031,7 @@
         <v>3211</v>
       </c>
       <c r="B3211">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3212" spans="1:2">
@@ -26039,7 +26039,7 @@
         <v>3212</v>
       </c>
       <c r="B3212">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3213" spans="1:2">
@@ -26047,7 +26047,7 @@
         <v>3213</v>
       </c>
       <c r="B3213">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3214" spans="1:2">
@@ -26055,7 +26055,7 @@
         <v>3214</v>
       </c>
       <c r="B3214">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3215" spans="1:2">
@@ -26135,7 +26135,7 @@
         <v>3224</v>
       </c>
       <c r="B3224">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3225" spans="1:2">
@@ -26223,7 +26223,7 @@
         <v>3235</v>
       </c>
       <c r="B3235">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3236" spans="1:2">
@@ -26231,7 +26231,7 @@
         <v>3236</v>
       </c>
       <c r="B3236">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3237" spans="1:2">
@@ -26239,7 +26239,7 @@
         <v>3237</v>
       </c>
       <c r="B3237">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3238" spans="1:2">
@@ -26247,7 +26247,7 @@
         <v>3238</v>
       </c>
       <c r="B3238">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3239" spans="1:2">
@@ -26327,7 +26327,7 @@
         <v>3248</v>
       </c>
       <c r="B3248">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3249" spans="1:2">
@@ -26415,7 +26415,7 @@
         <v>3259</v>
       </c>
       <c r="B3259">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3260" spans="1:2">
@@ -26423,7 +26423,7 @@
         <v>3260</v>
       </c>
       <c r="B3260">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3261" spans="1:2">
@@ -26431,7 +26431,7 @@
         <v>3261</v>
       </c>
       <c r="B3261">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3262" spans="1:2">
@@ -26439,7 +26439,7 @@
         <v>3262</v>
       </c>
       <c r="B3262">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3263" spans="1:2">
@@ -26519,7 +26519,7 @@
         <v>3272</v>
       </c>
       <c r="B3272">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3273" spans="1:2">
@@ -26607,7 +26607,7 @@
         <v>3283</v>
       </c>
       <c r="B3283">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3284" spans="1:2">
@@ -26615,7 +26615,7 @@
         <v>3284</v>
       </c>
       <c r="B3284">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3285" spans="1:2">
@@ -26623,7 +26623,7 @@
         <v>3285</v>
       </c>
       <c r="B3285">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3286" spans="1:2">
@@ -26631,7 +26631,7 @@
         <v>3286</v>
       </c>
       <c r="B3286">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3287" spans="1:2">
@@ -26711,7 +26711,7 @@
         <v>3296</v>
       </c>
       <c r="B3296">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3297" spans="1:2">
@@ -26799,7 +26799,7 @@
         <v>3307</v>
       </c>
       <c r="B3307">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3308" spans="1:2">
@@ -26807,7 +26807,7 @@
         <v>3308</v>
       </c>
       <c r="B3308">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3309" spans="1:2">
@@ -26815,7 +26815,7 @@
         <v>3309</v>
       </c>
       <c r="B3309">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3310" spans="1:2">
@@ -26823,7 +26823,7 @@
         <v>3310</v>
       </c>
       <c r="B3310">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3311" spans="1:2">
@@ -27103,7 +27103,7 @@
         <v>3345</v>
       </c>
       <c r="B3345">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3346" spans="1:2">
@@ -27287,7 +27287,7 @@
         <v>3368</v>
       </c>
       <c r="B3368">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3369" spans="1:2">
@@ -27375,7 +27375,7 @@
         <v>3379</v>
       </c>
       <c r="B3379">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3380" spans="1:2">
@@ -27383,7 +27383,7 @@
         <v>3380</v>
       </c>
       <c r="B3380">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3381" spans="1:2">
@@ -27391,7 +27391,7 @@
         <v>3381</v>
       </c>
       <c r="B3381">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3382" spans="1:2">
@@ -27399,7 +27399,7 @@
         <v>3382</v>
       </c>
       <c r="B3382">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3383" spans="1:2">
@@ -27479,7 +27479,7 @@
         <v>3392</v>
       </c>
       <c r="B3392">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3393" spans="1:2">
@@ -27567,7 +27567,7 @@
         <v>3403</v>
       </c>
       <c r="B3403">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3404" spans="1:2">
@@ -27575,7 +27575,7 @@
         <v>3404</v>
       </c>
       <c r="B3404">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3405" spans="1:2">
@@ -27583,7 +27583,7 @@
         <v>3405</v>
       </c>
       <c r="B3405">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3406" spans="1:2">
@@ -27591,7 +27591,7 @@
         <v>3406</v>
       </c>
       <c r="B3406">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3407" spans="1:2">
@@ -27671,7 +27671,7 @@
         <v>3416</v>
       </c>
       <c r="B3416">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3417" spans="1:2">
@@ -27759,7 +27759,7 @@
         <v>3427</v>
       </c>
       <c r="B3427">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3428" spans="1:2">
@@ -27767,7 +27767,7 @@
         <v>3428</v>
       </c>
       <c r="B3428">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3429" spans="1:2">
@@ -27775,7 +27775,7 @@
         <v>3429</v>
       </c>
       <c r="B3429">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3430" spans="1:2">
@@ -27783,7 +27783,7 @@
         <v>3430</v>
       </c>
       <c r="B3430">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3431" spans="1:2">
@@ -27863,7 +27863,7 @@
         <v>3440</v>
       </c>
       <c r="B3440">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3441" spans="1:2">
@@ -27951,7 +27951,7 @@
         <v>3451</v>
       </c>
       <c r="B3451">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3452" spans="1:2">
@@ -27959,7 +27959,7 @@
         <v>3452</v>
       </c>
       <c r="B3452">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3453" spans="1:2">
@@ -27967,7 +27967,7 @@
         <v>3453</v>
       </c>
       <c r="B3453">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3454" spans="1:2">
@@ -27975,7 +27975,7 @@
         <v>3454</v>
       </c>
       <c r="B3454">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3455" spans="1:2">
@@ -28055,7 +28055,7 @@
         <v>3464</v>
       </c>
       <c r="B3464">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3465" spans="1:2">
@@ -28143,7 +28143,7 @@
         <v>3475</v>
       </c>
       <c r="B3475">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3476" spans="1:2">
@@ -28151,7 +28151,7 @@
         <v>3476</v>
       </c>
       <c r="B3476">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3477" spans="1:2">
@@ -28159,7 +28159,7 @@
         <v>3477</v>
       </c>
       <c r="B3477">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3478" spans="1:2">
@@ -28167,7 +28167,7 @@
         <v>3478</v>
       </c>
       <c r="B3478">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3479" spans="1:2">
@@ -28447,7 +28447,7 @@
         <v>3513</v>
       </c>
       <c r="B3513">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3514" spans="1:2">
@@ -28639,7 +28639,7 @@
         <v>3537</v>
       </c>
       <c r="B3537">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3538" spans="1:2">
@@ -28823,7 +28823,7 @@
         <v>3560</v>
       </c>
       <c r="B3560">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3561" spans="1:2">
@@ -28911,7 +28911,7 @@
         <v>3571</v>
       </c>
       <c r="B3571">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3572" spans="1:2">
@@ -28919,7 +28919,7 @@
         <v>3572</v>
       </c>
       <c r="B3572">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3573" spans="1:2">
@@ -28927,7 +28927,7 @@
         <v>3573</v>
       </c>
       <c r="B3573">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3574" spans="1:2">
@@ -28935,7 +28935,7 @@
         <v>3574</v>
       </c>
       <c r="B3574">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3575" spans="1:2">
@@ -29015,7 +29015,7 @@
         <v>3584</v>
       </c>
       <c r="B3584">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3585" spans="1:2">
@@ -29103,7 +29103,7 @@
         <v>3595</v>
       </c>
       <c r="B3595">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3596" spans="1:2">
@@ -29111,7 +29111,7 @@
         <v>3596</v>
       </c>
       <c r="B3596">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3597" spans="1:2">
@@ -29119,7 +29119,7 @@
         <v>3597</v>
       </c>
       <c r="B3597">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3598" spans="1:2">
@@ -29127,7 +29127,7 @@
         <v>3598</v>
       </c>
       <c r="B3598">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3599" spans="1:2">
@@ -29207,7 +29207,7 @@
         <v>3608</v>
       </c>
       <c r="B3608">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3609" spans="1:2">
@@ -29295,7 +29295,7 @@
         <v>3619</v>
       </c>
       <c r="B3619">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3620" spans="1:2">
@@ -29303,7 +29303,7 @@
         <v>3620</v>
       </c>
       <c r="B3620">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3621" spans="1:2">
@@ -29311,7 +29311,7 @@
         <v>3621</v>
       </c>
       <c r="B3621">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3622" spans="1:2">
@@ -29319,7 +29319,7 @@
         <v>3622</v>
       </c>
       <c r="B3622">
-        <v>167.1734353376853</v>
+        <v>167.1734353376852</v>
       </c>
     </row>
     <row r="3623" spans="1:2">
@@ -53759,7 +53759,7 @@
         <v>6677</v>
       </c>
       <c r="B6677">
-        <v>79.78554233674917</v>
+        <v>79.78554233674916</v>
       </c>
     </row>
     <row r="6678" spans="1:2">
@@ -53831,7 +53831,7 @@
         <v>6686</v>
       </c>
       <c r="B6686">
-        <v>79.78554233674917</v>
+        <v>79.78554233674916</v>
       </c>
     </row>
     <row r="6687" spans="1:2">
@@ -55103,7 +55103,7 @@
         <v>6845</v>
       </c>
       <c r="B6845">
-        <v>79.78554233674917</v>
+        <v>79.78554233674916</v>
       </c>
     </row>
     <row r="6846" spans="1:2">
@@ -55175,7 +55175,7 @@
         <v>6854</v>
       </c>
       <c r="B6854">
-        <v>79.78554233674917</v>
+        <v>79.78554233674916</v>
       </c>
     </row>
     <row r="6855" spans="1:2">
@@ -56447,7 +56447,7 @@
         <v>7013</v>
       </c>
       <c r="B7013">
-        <v>79.78554233674917</v>
+        <v>79.78554233674916</v>
       </c>
     </row>
     <row r="7014" spans="1:2">
@@ -56519,7 +56519,7 @@
         <v>7022</v>
       </c>
       <c r="B7022">
-        <v>79.78554233674917</v>
+        <v>79.78554233674916</v>
       </c>
     </row>
     <row r="7023" spans="1:2">
@@ -57791,7 +57791,7 @@
         <v>7181</v>
       </c>
       <c r="B7181">
-        <v>79.78554233674917</v>
+        <v>79.78554233674916</v>
       </c>
     </row>
     <row r="7182" spans="1:2">
@@ -57863,7 +57863,7 @@
         <v>7190</v>
       </c>
       <c r="B7190">
-        <v>79.78554233674917</v>
+        <v>79.78554233674916</v>
       </c>
     </row>
     <row r="7191" spans="1:2">
